--- a/docs/manuals/cave_infos.xlsx
+++ b/docs/manuals/cave_infos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>CAVE Settings</t>
   </si>
@@ -104,9 +104,6 @@
     <t>MultiGPU</t>
   </si>
   <si>
-    <t>Nummer Switch</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Right Eye</t>
   </si>
   <si>
-    <t>Middle</t>
-  </si>
-  <si>
     <t>Right</t>
   </si>
   <si>
@@ -155,7 +149,22 @@
     <t>Windows (Datenträger 2, 256 GB), windows update, autologin cpvr, monitore doppelt, middlevr insstaliert, share auf C</t>
   </si>
   <si>
+    <t>Windows, Updates, Share, some Games, middleVR, Monitor-Settings, Teamviewer (123456)</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Beamer Nummer</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Windows (Datenträger 2, 256 GB), </t>
     </r>
     <r>
@@ -170,15 +179,12 @@
       <t>windows update, autologin cpvr, monitore doppelt, middlevr insstaliert, share auf C</t>
     </r>
   </si>
-  <si>
-    <t>Windows, Updates, Share, some Games, middleVR, Monitor-Settings, Teamviewer (123456)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +216,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -525,7 +539,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -600,13 +614,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -620,10 +631,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -634,19 +648,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -657,19 +674,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -680,22 +697,22 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,19 +723,19 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -729,13 +746,13 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -746,16 +763,16 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -802,7 +819,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/manuals/cave_infos.xlsx
+++ b/docs/manuals/cave_infos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>CAVE Settings</t>
   </si>
@@ -158,33 +158,14 @@
     <t>Beamer Nummer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Windows (Datenträger 2, 256 GB), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>windows update, autologin cpvr, monitore doppelt, middlevr insstaliert, share auf C</t>
-    </r>
+    <t>Mosaic Setting (1x2 (höhe,breite)), share C, middlevr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +185,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,8 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -254,8 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -539,7 +511,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,41 +525,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -636,8 +608,8 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -771,22 +743,22 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -796,18 +768,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
